--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pnik\source\repos\comp-db-herokuapp-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28A5559-4E66-4022-B5C8-7F61B50C078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A899B2A-D019-4734-9873-E1F1A4FBDC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{AEC95DD6-B089-4C81-9634-CF8AE8A16934}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="183">
-  <si>
-    <t>Feature</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="174">
   <si>
     <t>Name</t>
   </si>
@@ -99,30 +96,6 @@
   </si>
   <si>
     <t>Navigating to the web address successful</t>
-  </si>
-  <si>
-    <t>Type of test</t>
-  </si>
-  <si>
-    <t>Open web application</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Create entry</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Read entry</t>
-  </si>
-  <si>
-    <t>Update entry</t>
-  </si>
-  <si>
-    <t>Delete entry</t>
   </si>
   <si>
     <t>When I Add a new computer to the database
@@ -1001,32 +974,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF1CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1041,7 +994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1067,10 +1020,6 @@
       <alignment horizontal="right" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1079,16 +1028,8 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1099,48 +1040,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1159,22 +1064,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1491,988 +1380,761 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BB80F9-E135-454D-BA92-213C309DFF11}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.84375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="156.15234375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="99.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="182.23046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="120.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="156.15234375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="99.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="182.23046875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.6">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+        <v>146</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
-      <c r="B9" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="65.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="80.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="17" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="C29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="B30" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A31" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A11" s="16"/>
-      <c r="B11" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="65.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="16"/>
-      <c r="B12" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A13" s="16"/>
-      <c r="B13" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A14" s="16"/>
-      <c r="B14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="80.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A15" s="16"/>
-      <c r="B15" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="B31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A17" s="16"/>
-      <c r="B17" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="14" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A34" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="60.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="58.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="61.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A38" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A39" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A21" s="16"/>
-      <c r="B21" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A22" s="16"/>
-      <c r="B22" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A23" s="16"/>
-      <c r="B23" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
-      <c r="B25" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
-      <c r="B30" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A32" s="18" t="s">
+    </row>
+    <row r="42" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A42" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A44" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="80.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="60.45" x14ac:dyDescent="0.6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="60.45" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="58.3" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="61.3" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.6">
-      <c r="A38" s="21"/>
-      <c r="B38" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.6">
-      <c r="A39" s="20"/>
-      <c r="B39" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A42" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="15" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A43" s="23"/>
-      <c r="B43" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="D51" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A44" s="24"/>
-      <c r="B44" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="15" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="40.299999999999997" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="20.149999999999999" x14ac:dyDescent="0.4">
+      <c r="A53" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+    </row>
+    <row r="54" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="60.45" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A45" s="24"/>
-      <c r="B45" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A46" s="24"/>
-      <c r="B46" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A47" s="23"/>
-      <c r="B47" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="80.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A48" s="24"/>
-      <c r="B48" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="15" t="s">
+      <c r="C55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A49" s="23"/>
-      <c r="B49" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A50" s="24"/>
-      <c r="B50" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A51" s="24"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="40.299999999999997" x14ac:dyDescent="0.4">
-      <c r="A52" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="20.149999999999999" x14ac:dyDescent="0.4">
-      <c r="A53" s="25"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A54" s="26"/>
-      <c r="B54" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60.45" x14ac:dyDescent="0.4">
-      <c r="A55" s="26"/>
-      <c r="B55" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-    </row>
-    <row r="57" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
+    <row r="56" spans="1:4" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B50:B51"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
